--- a/Match/0307/論文誌査読対応.xlsx
+++ b/Match/0307/論文誌査読対応.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosumosu/Documents/GitHub/Research/Match/0307/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Research\Match\0307\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FEF5B7-2E74-F848-A3F4-87CE2F5D4B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01C45BE-607E-40DB-80A0-DE01B3586792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>難易度</t>
   </si>
@@ -7269,52 +7269,52 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>セクション</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コアの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>場合</t>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>節</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先行研究</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[12]</t>
     </r>
     <r>
       <rPr>
@@ -7333,29 +7333,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コアの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>場合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>[16]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>において</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本論文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、我々</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
         <charset val="128"/>
@@ -7365,15 +7398,177 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>実行時間</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>するアプローチに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>づき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、実際</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のハードウェア</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>という</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
         <charset val="128"/>
@@ -7383,33 +7578,27 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>短縮。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>また</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本論文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
         <charset val="134"/>
@@ -7420,129 +7609,111 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提案手法を実際のアプリケーションに適用するメリットは何か</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通信</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>オーバヘッドの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>推定精度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>並列化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>利得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>反映</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>されることを</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>明らかにする根拠を示すべき</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[16]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>しているのか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、現在投稿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>されている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>論文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>しているのか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不明</t>
     </r>
     <r>
       <rPr>
@@ -7572,60 +7743,59 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>節</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先行研究</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[12]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+      <t>セクション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コアの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t>→</t>
     </r>
@@ -7636,406 +7806,248 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[16]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>において</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コアの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>実行時間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>短縮。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>また</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提案手法を実際のアプリケーションに適用するメリットは何か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>オーバヘッドの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推定精度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>並列化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反映</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>されることを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明らかにする根拠を示すべき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>である</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本論文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、我々</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>するアプローチに</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>づき</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、実際</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のハードウェア</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SHIM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>す</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>という</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本論文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[16]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>しているのか</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、現在投稿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>されている</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>論文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>しているのか</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>である</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -8043,7 +8055,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8193,6 +8205,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8340,7 +8358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8355,6 +8373,27 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8389,26 +8428,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8628,22 +8658,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H997"/>
+  <dimension ref="A1:I997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83:D86"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" customWidth="1"/>
-    <col min="3" max="3" width="66.6640625" customWidth="1"/>
-    <col min="4" max="4" width="71.83203125" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" customWidth="1"/>
+    <col min="3" max="3" width="66.6328125" customWidth="1"/>
+    <col min="4" max="5" width="71.81640625" customWidth="1"/>
+    <col min="6" max="27" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8654,699 +8684,796 @@
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="16">
+    <row r="2" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A2" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="24"/>
+      <c r="G2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="24"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+    <row r="4" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="24"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="F5" s="1" t="s">
+    <row r="5" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="24"/>
+      <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="16">
+    <row r="6" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9"/>
+    <row r="7" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="25"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="9"/>
+    <row r="8" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="214.5" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="9"/>
+    <row r="9" spans="1:9" ht="214.5" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="16">
+    <row r="10" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
+    <row r="11" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
+    <row r="12" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="96.5" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="G13" s="3"/>
+    <row r="13" spans="1:9" ht="96.5" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="24"/>
+      <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="16">
+    <row r="14" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+    <row r="15" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+    <row r="16" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="1:4" ht="158" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+    <row r="17" spans="1:5" ht="158" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A18" s="16">
+    <row r="18" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="25"/>
     </row>
-    <row r="19" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+    <row r="19" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+    <row r="20" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="1:4" ht="101.5" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+    <row r="21" spans="1:5" ht="101.5" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A22" s="16">
+    <row r="22" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A22" s="5">
         <v>2</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+    <row r="23" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="25"/>
     </row>
-    <row r="24" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+    <row r="24" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="1:4" ht="127" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+    <row r="25" spans="1:5" ht="127" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="25"/>
     </row>
-    <row r="26" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A26" s="16">
+    <row r="26" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A26" s="5">
         <v>2</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="25"/>
     </row>
-    <row r="27" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+    <row r="27" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="25"/>
     </row>
-    <row r="28" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+    <row r="28" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="25"/>
     </row>
-    <row r="29" spans="1:4" ht="126.5" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+    <row r="29" spans="1:5" ht="126.5" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="25"/>
     </row>
-    <row r="30" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A30" s="16">
+    <row r="30" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A30" s="5">
         <v>2</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="25"/>
     </row>
-    <row r="31" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+    <row r="31" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="25"/>
     </row>
-    <row r="32" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+    <row r="32" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="25"/>
     </row>
-    <row r="33" spans="1:4" ht="33" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+    <row r="33" spans="1:5" ht="33" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="25"/>
     </row>
-    <row r="34" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A34" s="16">
+    <row r="34" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A34" s="5">
         <v>2</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="25"/>
     </row>
-    <row r="35" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+    <row r="35" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="25"/>
     </row>
-    <row r="36" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+    <row r="36" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="25"/>
     </row>
-    <row r="37" spans="1:4" ht="38" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+    <row r="37" spans="1:5" ht="38" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="25"/>
     </row>
-    <row r="38" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A38" s="16">
+    <row r="38" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A38" s="5">
         <v>3</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="25"/>
     </row>
-    <row r="39" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+    <row r="39" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="25"/>
     </row>
-    <row r="40" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+    <row r="40" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="1:4" ht="84.5" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+    <row r="41" spans="1:5" ht="84.5" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="25"/>
     </row>
-    <row r="42" spans="1:4" ht="84.5" customHeight="1">
-      <c r="A42" s="16">
+    <row r="42" spans="1:5" ht="84.5" customHeight="1">
+      <c r="A42" s="5">
         <v>3</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="16"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="24"/>
     </row>
-    <row r="43" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="18"/>
+    <row r="43" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="18"/>
+    <row r="44" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="24"/>
     </row>
-    <row r="45" spans="1:4" ht="283.5" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="20"/>
+    <row r="45" spans="1:5" ht="283.5" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="24"/>
     </row>
-    <row r="46" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A46" s="16">
+    <row r="46" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A46" s="5">
         <v>2</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="16"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="24"/>
     </row>
-    <row r="47" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="18"/>
+    <row r="47" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="24"/>
     </row>
-    <row r="48" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="18"/>
+    <row r="48" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="24"/>
     </row>
-    <row r="49" spans="1:4" ht="167.5" customHeight="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="20"/>
+    <row r="49" spans="1:5" ht="167.5" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="24"/>
     </row>
-    <row r="50" spans="1:4" ht="102" customHeight="1">
-      <c r="A50" s="16">
+    <row r="50" spans="1:5" ht="102" customHeight="1">
+      <c r="A50" s="5">
         <v>5</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="24"/>
     </row>
-    <row r="51" spans="1:4" ht="20" hidden="1" customHeight="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="18"/>
+    <row r="51" spans="1:5" ht="20" hidden="1" customHeight="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="24"/>
     </row>
-    <row r="52" spans="1:4" ht="20" hidden="1" customHeight="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="18"/>
+    <row r="52" spans="1:5" ht="20" hidden="1" customHeight="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:4" ht="20" hidden="1" customHeight="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="18"/>
+    <row r="53" spans="1:5" ht="20" hidden="1" customHeight="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="1:4" ht="20" hidden="1" customHeight="1">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="20"/>
+    <row r="54" spans="1:5" ht="20" hidden="1" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17" t="s">
+    <row r="55" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A55" s="5"/>
+      <c r="B55" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="17"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="25"/>
     </row>
-    <row r="56" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+    <row r="56" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="25"/>
     </row>
-    <row r="57" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+    <row r="57" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+    <row r="58" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17" t="s">
+    <row r="59" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="17"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+    <row r="60" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+    <row r="61" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A61" s="6"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:4" ht="56" customHeight="1">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+    <row r="62" spans="1:5" ht="56" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17" t="s">
+    <row r="63" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A63" s="5"/>
+      <c r="B63" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
+    <row r="64" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A64" s="6"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="25"/>
     </row>
-    <row r="65" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+    <row r="65" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A65" s="6"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="25"/>
     </row>
-    <row r="66" spans="1:4" ht="66" customHeight="1">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+    <row r="66" spans="1:5" ht="66" customHeight="1">
+      <c r="A66" s="7"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="25"/>
     </row>
-    <row r="67" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17" t="s">
+    <row r="67" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A67" s="5"/>
+      <c r="B67" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="25"/>
     </row>
-    <row r="68" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+    <row r="68" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="25"/>
     </row>
-    <row r="69" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+    <row r="69" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="25"/>
     </row>
-    <row r="70" spans="1:4" ht="152" customHeight="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
+    <row r="70" spans="1:5" ht="152" customHeight="1">
+      <c r="A70" s="7"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="25"/>
     </row>
-    <row r="71" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17" t="s">
+    <row r="71" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A71" s="5"/>
+      <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="17"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="25"/>
     </row>
-    <row r="72" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+    <row r="72" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A72" s="6"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="25"/>
     </row>
-    <row r="73" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+    <row r="73" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="25"/>
     </row>
-    <row r="74" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A74" s="20"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+    <row r="74" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A74" s="7"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="25"/>
     </row>
-    <row r="75" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17" t="s">
+    <row r="75" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A75" s="5"/>
+      <c r="B75" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="17"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="25"/>
     </row>
-    <row r="76" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+    <row r="76" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A76" s="6"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="25"/>
     </row>
-    <row r="77" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
+    <row r="77" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="25"/>
     </row>
-    <row r="78" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
+    <row r="78" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A78" s="7"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="25"/>
     </row>
-    <row r="79" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A79" s="16"/>
-      <c r="B79" s="17" t="s">
+    <row r="79" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A79" s="5"/>
+      <c r="B79" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="25"/>
     </row>
-    <row r="80" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
+    <row r="80" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A80" s="6"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="25"/>
     </row>
-    <row r="81" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="6"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="25"/>
     </row>
-    <row r="82" spans="1:4" ht="106" customHeight="1">
-      <c r="A82" s="20"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
+    <row r="82" spans="1:5" ht="106" customHeight="1">
+      <c r="A82" s="7"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="25"/>
     </row>
-    <row r="83" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17" t="s">
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A83" s="5"/>
+      <c r="B83" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="25"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="6"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="25"/>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="6"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="25"/>
+    </row>
+    <row r="86" spans="1:5" ht="129.5" customHeight="1">
+      <c r="A86" s="7"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="25"/>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="5"/>
+      <c r="B87" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D83" s="17"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="25"/>
     </row>
-    <row r="84" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="6"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="25"/>
     </row>
-    <row r="85" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="6"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="25"/>
     </row>
-    <row r="86" spans="1:4" ht="129.5" customHeight="1">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
+    <row r="90" spans="1:5" ht="132.5" customHeight="1">
+      <c r="A90" s="7"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="25"/>
     </row>
-    <row r="87" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A87" s="16"/>
-      <c r="B87" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87" s="17"/>
-    </row>
-    <row r="88" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-    </row>
-    <row r="89" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-    </row>
-    <row r="90" spans="1:4" ht="132.5" customHeight="1">
-      <c r="A90" s="20"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-    </row>
-    <row r="91" spans="1:4" ht="13.5" customHeight="1"/>
-    <row r="92" spans="1:4" ht="13.5" customHeight="1"/>
-    <row r="93" spans="1:4" ht="13.5" customHeight="1"/>
-    <row r="94" spans="1:4" ht="13.5" customHeight="1"/>
-    <row r="95" spans="1:4" ht="13.5" customHeight="1"/>
-    <row r="96" spans="1:4" ht="13.5" customHeight="1"/>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="93" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="97" ht="13.5" customHeight="1"/>
     <row r="98" ht="13.5" customHeight="1"/>
     <row r="99" ht="13.5" customHeight="1"/>
@@ -10289,15 +10416,15 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:H4"/>
+    <mergeCell ref="G2:I4"/>
+    <mergeCell ref="H6:H9"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C22:C25"/>
